--- a/views/financeiro/relatorios/resumo_campanha_68.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_68.xlsx
@@ -50,13 +50,13 @@
     <t>CONVERTIDAS (3%)</t>
   </si>
   <si>
-    <t>NÃO CONVERTIDAS (1%)</t>
+    <t>NÃO CONVERTIDAS (2%)</t>
   </si>
   <si>
     <t>NÃO CONVERTIDAS (%)</t>
   </si>
   <si>
-    <t>COMISSÃO (1%)</t>
+    <t>COMISSÃO (2%)</t>
   </si>
   <si>
     <t>CONVERSÃO PÓS FECH</t>
@@ -643,25 +643,25 @@
         <v>16</v>
       </c>
       <c r="C8" s="6">
-        <v>16261.52</v>
+        <v>18600.52</v>
       </c>
       <c r="D8" s="6">
-        <v>11971.62</v>
+        <v>16281.62</v>
       </c>
       <c r="E8" s="6">
-        <v>4289.9</v>
+        <v>2318.9</v>
       </c>
       <c r="F8" s="7">
-        <v>0.26380682740605</v>
+        <v>0.12466855765323</v>
       </c>
       <c r="G8" s="6">
-        <v>42.899</v>
+        <v>46.378</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>2318.9</v>
       </c>
       <c r="I8" s="8">
-        <v>0.0</v>
+        <v>46.378</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -669,25 +669,25 @@
         <v>17</v>
       </c>
       <c r="C9" s="6">
-        <v>9250.0</v>
+        <v>9050.0</v>
       </c>
       <c r="D9" s="6">
-        <v>2660.0</v>
+        <v>4360.0</v>
       </c>
       <c r="E9" s="6">
-        <v>6590.0</v>
+        <v>4690.0</v>
       </c>
       <c r="F9" s="7">
-        <v>0.71243243243243</v>
+        <v>0.5182320441989</v>
       </c>
       <c r="G9" s="6">
-        <v>65.9</v>
+        <v>93.8</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>4690.0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -707,13 +707,13 @@
         <v>0.062151691561872</v>
       </c>
       <c r="G10" s="6">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="H10" s="8">
-        <v>0</v>
+        <v>300.0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -724,16 +724,16 @@
         <v>12845.0</v>
       </c>
       <c r="D11" s="6">
-        <v>10455.0</v>
+        <v>12845.0</v>
       </c>
       <c r="E11" s="6">
-        <v>2390.0</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="7">
-        <v>0.18606461658233</v>
+        <v>0.0</v>
       </c>
       <c r="G11" s="6">
-        <v>23.9</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -747,25 +747,25 @@
         <v>20</v>
       </c>
       <c r="C12" s="6">
+        <v>8830.0</v>
+      </c>
+      <c r="D12" s="6">
         <v>8330.0</v>
       </c>
-      <c r="D12" s="6">
-        <v>7030.0</v>
-      </c>
       <c r="E12" s="6">
-        <v>1300.0</v>
+        <v>500.0</v>
       </c>
       <c r="F12" s="7">
-        <v>0.15606242496999</v>
+        <v>0.056625141562854</v>
       </c>
       <c r="G12" s="6">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="H12" s="8">
-        <v>0</v>
+        <v>500.0</v>
       </c>
       <c r="I12" s="8">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -773,25 +773,25 @@
         <v>21</v>
       </c>
       <c r="C13" s="9">
-        <v>51513.42</v>
+        <v>54152.42</v>
       </c>
       <c r="D13" s="9">
-        <v>36643.52</v>
+        <v>46343.52</v>
       </c>
       <c r="E13" s="9">
-        <v>14869.9</v>
+        <v>7808.9</v>
       </c>
       <c r="F13" s="10">
-        <v>0.28866070239561</v>
+        <v>0.14420223509863</v>
       </c>
       <c r="G13" s="9">
-        <v>148.699</v>
+        <v>156.178</v>
       </c>
       <c r="H13" s="9">
-        <v>0</v>
+        <v>7808.9</v>
       </c>
       <c r="I13" s="9">
-        <v>0.0</v>
+        <v>156.178</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -842,13 +842,13 @@
         <v>1.0</v>
       </c>
       <c r="G17" s="6">
-        <v>11.1</v>
+        <v>22.2</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>650.0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -868,13 +868,13 @@
         <v>1.0</v>
       </c>
       <c r="G18" s="9">
-        <v>11.1</v>
+        <v>22.2</v>
       </c>
       <c r="H18" s="9">
-        <v>0</v>
+        <v>650.0</v>
       </c>
       <c r="I18" s="9">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -913,25 +913,25 @@
         <v>25</v>
       </c>
       <c r="C21" s="6">
+        <v>5317.4</v>
+      </c>
+      <c r="D21" s="6">
         <v>2587.4</v>
       </c>
-      <c r="D21" s="6">
-        <v>1937.4</v>
-      </c>
       <c r="E21" s="6">
-        <v>650.0</v>
+        <v>2730.0</v>
       </c>
       <c r="F21" s="7">
-        <v>0.25121743835511</v>
+        <v>0.51340880881634</v>
       </c>
       <c r="G21" s="6">
-        <v>6.5</v>
+        <v>54.6</v>
       </c>
       <c r="H21" s="8">
-        <v>0</v>
+        <v>2730.0</v>
       </c>
       <c r="I21" s="8">
-        <v>0.0</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -939,25 +939,25 @@
         <v>21</v>
       </c>
       <c r="C22" s="9">
+        <v>5317.4</v>
+      </c>
+      <c r="D22" s="9">
         <v>2587.4</v>
       </c>
-      <c r="D22" s="9">
-        <v>1937.4</v>
-      </c>
       <c r="E22" s="9">
-        <v>650.0</v>
+        <v>2730.0</v>
       </c>
       <c r="F22" s="10">
-        <v>0.25121743835511</v>
+        <v>0.51340880881634</v>
       </c>
       <c r="G22" s="9">
-        <v>6.5</v>
+        <v>54.6</v>
       </c>
       <c r="H22" s="9">
-        <v>0</v>
+        <v>2730.0</v>
       </c>
       <c r="I22" s="9">
-        <v>0.0</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -996,25 +996,25 @@
         <v>28</v>
       </c>
       <c r="C25" s="6">
-        <v>51513.42</v>
+        <v>54152.42</v>
       </c>
       <c r="D25" s="6">
-        <v>36643.52</v>
+        <v>46343.52</v>
       </c>
       <c r="E25" s="6">
-        <v>14869.9</v>
+        <v>7808.9</v>
       </c>
       <c r="F25" s="7">
-        <v>0.28866070239561</v>
+        <v>0.14420223509863</v>
       </c>
       <c r="G25" s="6">
-        <v>148.699</v>
+        <v>156.178</v>
       </c>
       <c r="H25" s="8">
-        <v>0</v>
+        <v>7808.9</v>
       </c>
       <c r="I25" s="8">
-        <v>0.0</v>
+        <v>156.178</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1034,13 +1034,13 @@
         <v>1.0</v>
       </c>
       <c r="G26" s="6">
-        <v>11.1</v>
+        <v>22.2</v>
       </c>
       <c r="H26" s="8">
-        <v>0</v>
+        <v>650.0</v>
       </c>
       <c r="I26" s="8">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1048,25 +1048,25 @@
         <v>30</v>
       </c>
       <c r="C27" s="6">
+        <v>5317.4</v>
+      </c>
+      <c r="D27" s="6">
         <v>2587.4</v>
       </c>
-      <c r="D27" s="6">
-        <v>1937.4</v>
-      </c>
       <c r="E27" s="6">
-        <v>650.0</v>
+        <v>2730.0</v>
       </c>
       <c r="F27" s="7">
-        <v>0.25121743835511</v>
+        <v>0.51340880881634</v>
       </c>
       <c r="G27" s="6">
-        <v>6.5</v>
+        <v>54.6</v>
       </c>
       <c r="H27" s="8">
-        <v>0</v>
+        <v>2730.0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0</v>
+        <v>54.6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1074,25 +1074,25 @@
         <v>21</v>
       </c>
       <c r="C28" s="9">
-        <v>55210.82</v>
+        <v>60579.82</v>
       </c>
       <c r="D28" s="9">
-        <v>38580.92</v>
+        <v>48930.92</v>
       </c>
       <c r="E28" s="9">
-        <v>16629.9</v>
+        <v>11648.9</v>
       </c>
       <c r="F28" s="10">
-        <v>0.30120726335889</v>
+        <v>0.19229010584713</v>
       </c>
       <c r="G28" s="9">
-        <v>166.299</v>
+        <v>232.978</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
+        <v>11188.9</v>
       </c>
       <c r="I28" s="9">
-        <v>0.0</v>
+        <v>223.778</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1125,13 +1125,13 @@
         <v>16</v>
       </c>
       <c r="D32" s="12">
-        <v>16261.52</v>
+        <v>18600.52</v>
       </c>
       <c r="E32" s="13">
-        <v>11971.62</v>
+        <v>18600.52</v>
       </c>
       <c r="F32" s="12">
-        <v>4289.9</v>
+        <v>-4.5474735088646E-13</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1142,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="D33" s="12">
-        <v>9250.0</v>
+        <v>9050.0</v>
       </c>
       <c r="E33" s="13">
-        <v>2660.0</v>
+        <v>9050.0</v>
       </c>
       <c r="F33" s="12">
-        <v>6590.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1162,10 +1162,10 @@
         <v>4826.9</v>
       </c>
       <c r="E34" s="13">
-        <v>4526.9</v>
+        <v>4826.9</v>
       </c>
       <c r="F34" s="12">
-        <v>300.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1179,10 +1179,10 @@
         <v>12845.0</v>
       </c>
       <c r="E35" s="13">
-        <v>10455.0</v>
+        <v>12845.0</v>
       </c>
       <c r="F35" s="12">
-        <v>2390.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1193,13 +1193,13 @@
         <v>20</v>
       </c>
       <c r="D36" s="12">
-        <v>8330.0</v>
+        <v>8830.0</v>
       </c>
       <c r="E36" s="13">
-        <v>7030.0</v>
+        <v>8830.0</v>
       </c>
       <c r="F36" s="12">
-        <v>1300.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1220,10 +1220,10 @@
         <v>1110.0</v>
       </c>
       <c r="E38" s="13">
-        <v>0</v>
+        <v>650.0</v>
       </c>
       <c r="F38" s="12">
-        <v>1110.0</v>
+        <v>460.0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1241,13 +1241,13 @@
         <v>25</v>
       </c>
       <c r="D40" s="12">
-        <v>2587.4</v>
+        <v>5317.4</v>
       </c>
       <c r="E40" s="13">
-        <v>1937.4</v>
+        <v>5317.4</v>
       </c>
       <c r="F40" s="12">
-        <v>650.0</v>
+        <v>-4.5474735088646E-13</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1257,15 +1257,15 @@
       </c>
       <c r="D41" s="9">
         <f>sum(D32:D40)</f>
-        <v>55210.82</v>
+        <v>60579.82</v>
       </c>
       <c r="E41" s="9">
         <f>sum(E32:E40)</f>
-        <v>38580.92</v>
+        <v>60119.82</v>
       </c>
       <c r="F41" s="9">
         <f>sum(F32:F40)</f>
-        <v>16629.9</v>
+        <v>460</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E42" s="15">
         <f>(E41/D41)</f>
-        <v>0.69879273664111</v>
+        <v>0.99240671233424</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="E43" s="15">
         <f>(F41/D41)</f>
-        <v>0.30120726335889</v>
+        <v>0.0075932876657606</v>
       </c>
     </row>
   </sheetData>
